--- a/contas.xlsx
+++ b/contas.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="D2" t="n">
         <v>254</v>

--- a/contas.xlsx
+++ b/contas.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>999999999</v>
+        <v>1900</v>
       </c>
       <c r="D2" t="n">
         <v>254</v>
